--- a/1_Result_Tables/4_ifoCAST_evaluations_matched_since_2022/ifoCAst_error_tables_filtered_first_since_2022.xlsx
+++ b/1_Result_Tables/4_ifoCAST_evaluations_matched_since_2022/ifoCAst_error_tables_filtered_first_since_2022.xlsx
@@ -452,22 +452,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.09813340204310715</v>
+        <v>0.0944151529069</v>
       </c>
       <c r="C3">
-        <v>0.4635981031766924</v>
+        <v>0.4355155406315797</v>
       </c>
       <c r="D3">
-        <v>0.2750967462583303</v>
+        <v>0.2568765859223691</v>
       </c>
       <c r="E3">
-        <v>0.5244966599115101</v>
+        <v>0.5068299378710467</v>
       </c>
       <c r="F3">
-        <v>0.534684101076001</v>
+        <v>0.5154357014326421</v>
       </c>
       <c r="G3">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -475,22 +475,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.3184645791752099</v>
+        <v>0.3384128879484091</v>
       </c>
       <c r="C4">
-        <v>0.5856258252350265</v>
+        <v>0.586491187861096</v>
       </c>
       <c r="D4">
-        <v>0.594166007159368</v>
+        <v>0.5772465913568255</v>
       </c>
       <c r="E4">
-        <v>0.7708216441949253</v>
+        <v>0.7597674587377545</v>
       </c>
       <c r="F4">
-        <v>0.7306220036500644</v>
+        <v>0.705916007249359</v>
       </c>
       <c r="G4">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
